--- a/Files/college_info/all_colleges/GRRR/GRRR_placements.xlsx
+++ b/Files/college_info/all_colleges/GRRR/GRRR_placements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\GRRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\GRRR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F70CA2-A6C7-4D3E-8D7E-1C5760C19BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD3234-1C78-4263-85ED-71408D5F7DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Amazon SDE</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>Glandpharma</t>
+  </si>
+  <si>
+    <t>Hitachi Energy-2</t>
+  </si>
+  <si>
+    <t>Virtusa-2</t>
+  </si>
+  <si>
+    <t>HCL-2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -728,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,12 +938,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -973,7 +993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1006,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1017,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1039,7 +1059,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1072,7 +1092,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1083,7 +1103,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1198,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2">
         <v>6.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1259,7 +1279,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1270,7 +1290,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1303,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1314,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1336,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C76" s="2">
         <v>4.75</v>
@@ -1956,6 +1976,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A58">
     <sortCondition ref="A1:A58"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
